--- a/biology/Zoologie/Balkanoroncus_bureschi/Balkanoroncus_bureschi.xlsx
+++ b/biology/Zoologie/Balkanoroncus_bureschi/Balkanoroncus_bureschi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balkanoroncus bureschi est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Bulgarie[1]. Elle se rencontre vers Malka Bresnitza dans des grottes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Bulgarie. Elle se rencontre vers Malka Bresnitza dans des grottes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Obisium bureschi par Redikorzev en 1928. Elle est placée dans le genre Roncus par Beier en 1928[2], dans le genre Neobisium par Beier en 1932[3] puis dans le genre Balkanoroncus par Ćurčić en 1978[4] qui, par erreur, la renomme Balkanoroncus praeceps.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Obisium bureschi par Redikorzev en 1928. Elle est placée dans le genre Roncus par Beier en 1928, dans le genre Neobisium par Beier en 1932 puis dans le genre Balkanoroncus par Ćurčić en 1978 qui, par erreur, la renomme Balkanoroncus praeceps.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Redikorzev, 1928 : Beiträge zur Kenntnis der Pseudoscorpionenfauna Bulgariens. Mitteilungen aus dem Königlichen Naturwissenschaftlichen Institut in Sofia, vol. 1, p. 118-141.</t>
         </is>
